--- a/features_export.xlsx
+++ b/features_export.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F603"/>
+  <dimension ref="A1:G603"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>Subject</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>intent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -498,6 +503,11 @@
 </t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>task scheduled</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -532,6 +542,11 @@
 </t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>meeting schedule</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -566,6 +581,11 @@
 </t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>task assignment</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -600,6 +620,11 @@
 </t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>task assignment</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -634,6 +659,11 @@
 </t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>task scheduled</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -668,6 +698,11 @@
 </t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>task scheduled</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -702,6 +737,11 @@
 </t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -736,6 +776,11 @@
 </t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>task scheduled</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -770,6 +815,11 @@
 </t>
         </is>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -800,6 +850,11 @@
 </t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -834,6 +889,11 @@
 </t>
         </is>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -864,6 +924,11 @@
 </t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>task assignment</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -898,6 +963,11 @@
 </t>
         </is>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -932,6 +1002,11 @@
 </t>
         </is>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -966,6 +1041,11 @@
 </t>
         </is>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1000,6 +1080,11 @@
 </t>
         </is>
       </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1034,6 +1119,11 @@
 </t>
         </is>
       </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1068,6 +1158,11 @@
 </t>
         </is>
       </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1098,6 +1193,11 @@
 </t>
         </is>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1132,6 +1232,11 @@
 </t>
         </is>
       </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1162,6 +1267,11 @@
 </t>
         </is>
       </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1196,6 +1306,11 @@
 </t>
         </is>
       </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1230,6 +1345,11 @@
 </t>
         </is>
       </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1260,6 +1380,11 @@
 </t>
         </is>
       </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1294,6 +1419,11 @@
 </t>
         </is>
       </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1324,6 +1454,11 @@
 </t>
         </is>
       </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1354,6 +1489,11 @@
 </t>
         </is>
       </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1388,6 +1528,11 @@
 </t>
         </is>
       </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>task scheduled</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1422,6 +1567,11 @@
 </t>
         </is>
       </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>update</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1456,6 +1606,11 @@
 </t>
         </is>
       </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>task scheduled</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1490,6 +1645,11 @@
 </t>
         </is>
       </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>meeting schedule</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1524,6 +1684,11 @@
 </t>
         </is>
       </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1554,6 +1719,11 @@
 </t>
         </is>
       </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1588,6 +1758,11 @@
 </t>
         </is>
       </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1622,6 +1797,11 @@
 </t>
         </is>
       </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>meeting schedule</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1656,6 +1836,11 @@
 </t>
         </is>
       </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>meeting schedule</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1686,6 +1871,11 @@
 </t>
         </is>
       </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1720,6 +1910,11 @@
 </t>
         </is>
       </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1754,6 +1949,11 @@
 </t>
         </is>
       </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1788,6 +1988,11 @@
 </t>
         </is>
       </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>meeting schedule</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1818,6 +2023,11 @@
 </t>
         </is>
       </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1848,6 +2058,11 @@
 </t>
         </is>
       </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1878,6 +2093,11 @@
 </t>
         </is>
       </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1908,6 +2128,11 @@
 </t>
         </is>
       </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1942,6 +2167,11 @@
 </t>
         </is>
       </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>sharing document</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1972,6 +2202,11 @@
 </t>
         </is>
       </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>sharing document</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2006,6 +2241,11 @@
 </t>
         </is>
       </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2036,6 +2276,11 @@
 </t>
         </is>
       </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2070,6 +2315,11 @@
 </t>
         </is>
       </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2100,6 +2350,11 @@
 </t>
         </is>
       </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2134,6 +2389,11 @@
 </t>
         </is>
       </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2168,6 +2428,11 @@
 </t>
         </is>
       </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2202,6 +2467,11 @@
 </t>
         </is>
       </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2236,6 +2506,11 @@
 </t>
         </is>
       </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2270,6 +2545,11 @@
 </t>
         </is>
       </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>sharing document</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2304,6 +2584,11 @@
 </t>
         </is>
       </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2334,6 +2619,11 @@
 </t>
         </is>
       </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2364,6 +2654,11 @@
 </t>
         </is>
       </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2394,6 +2689,11 @@
 </t>
         </is>
       </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2426,6 +2726,11 @@
         <is>
           <t xml:space="preserve">TIME SENSITIVE: Executive Impact &amp; Influence Program Survey
 </t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>task assignment</t>
         </is>
       </c>
     </row>
@@ -2450,6 +2755,11 @@
 </t>
         </is>
       </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2484,6 +2794,11 @@
 </t>
         </is>
       </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2518,6 +2833,11 @@
 </t>
         </is>
       </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>meeting schedule</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2552,6 +2872,11 @@
 </t>
         </is>
       </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2586,6 +2911,11 @@
 </t>
         </is>
       </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2620,6 +2950,11 @@
 </t>
         </is>
       </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>task assignment</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2654,6 +2989,11 @@
 </t>
         </is>
       </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2684,6 +3024,11 @@
 </t>
         </is>
       </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2718,6 +3063,11 @@
 </t>
         </is>
       </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2752,6 +3102,11 @@
 </t>
         </is>
       </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2786,6 +3141,11 @@
 </t>
         </is>
       </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2820,6 +3180,11 @@
 </t>
         </is>
       </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2854,6 +3219,11 @@
 </t>
         </is>
       </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2884,6 +3254,11 @@
 </t>
         </is>
       </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2914,6 +3289,11 @@
 </t>
         </is>
       </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2944,6 +3324,11 @@
 </t>
         </is>
       </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2978,6 +3363,11 @@
 </t>
         </is>
       </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3008,6 +3398,11 @@
 </t>
         </is>
       </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3038,6 +3433,11 @@
 </t>
         </is>
       </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3068,6 +3468,11 @@
 </t>
         </is>
       </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3102,6 +3507,11 @@
 </t>
         </is>
       </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3132,6 +3542,11 @@
 </t>
         </is>
       </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3162,6 +3577,11 @@
 </t>
         </is>
       </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3196,6 +3616,11 @@
 </t>
         </is>
       </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3230,6 +3655,11 @@
 </t>
         </is>
       </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>meeting schedule</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3264,6 +3694,11 @@
 </t>
         </is>
       </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3298,6 +3733,11 @@
 </t>
         </is>
       </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3332,6 +3772,11 @@
 </t>
         </is>
       </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3362,6 +3807,11 @@
 </t>
         </is>
       </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>sharing document</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3396,6 +3846,11 @@
 </t>
         </is>
       </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3430,6 +3885,11 @@
 </t>
         </is>
       </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3464,6 +3924,11 @@
 </t>
         </is>
       </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3494,6 +3959,11 @@
 </t>
         </is>
       </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>sharing document</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3524,6 +3994,11 @@
 </t>
         </is>
       </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3558,6 +4033,11 @@
 </t>
         </is>
       </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3588,6 +4068,11 @@
 </t>
         </is>
       </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3618,6 +4103,11 @@
 </t>
         </is>
       </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3648,6 +4138,11 @@
 </t>
         </is>
       </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3678,6 +4173,11 @@
 </t>
         </is>
       </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3712,6 +4212,11 @@
 </t>
         </is>
       </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3746,6 +4251,11 @@
 </t>
         </is>
       </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3780,6 +4290,11 @@
 </t>
         </is>
       </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3814,6 +4329,11 @@
 </t>
         </is>
       </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3848,6 +4368,11 @@
 </t>
         </is>
       </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3882,6 +4407,11 @@
 </t>
         </is>
       </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>sharing document</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3916,6 +4446,11 @@
 </t>
         </is>
       </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3950,6 +4485,11 @@
 </t>
         </is>
       </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3984,6 +4524,11 @@
 </t>
         </is>
       </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>sharing document</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -4018,6 +4563,11 @@
 </t>
         </is>
       </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -4052,6 +4602,11 @@
 </t>
         </is>
       </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>task scheduled</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4082,6 +4637,11 @@
 </t>
         </is>
       </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>task assignment</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -4116,6 +4676,11 @@
 </t>
         </is>
       </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -4150,6 +4715,11 @@
 </t>
         </is>
       </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -4184,6 +4754,11 @@
 </t>
         </is>
       </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -4214,6 +4789,11 @@
 </t>
         </is>
       </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -4248,6 +4828,11 @@
 </t>
         </is>
       </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -4282,6 +4867,11 @@
 </t>
         </is>
       </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -4316,6 +4906,11 @@
 </t>
         </is>
       </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -4350,6 +4945,11 @@
 </t>
         </is>
       </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -4384,6 +4984,11 @@
 </t>
         </is>
       </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -4418,6 +5023,11 @@
 </t>
         </is>
       </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -4452,6 +5062,11 @@
 </t>
         </is>
       </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -4486,6 +5101,11 @@
 </t>
         </is>
       </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -4520,6 +5140,11 @@
 </t>
         </is>
       </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -4554,6 +5179,11 @@
 </t>
         </is>
       </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -4588,6 +5218,11 @@
 </t>
         </is>
       </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -4618,6 +5253,11 @@
 </t>
         </is>
       </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -4652,6 +5292,11 @@
 </t>
         </is>
       </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -4686,6 +5331,11 @@
 </t>
         </is>
       </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -4720,6 +5370,11 @@
 </t>
         </is>
       </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>discussion</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -4754,6 +5409,11 @@
 </t>
         </is>
       </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -4788,6 +5448,11 @@
 </t>
         </is>
       </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -4822,6 +5487,11 @@
 </t>
         </is>
       </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -4854,6 +5524,11 @@
         <is>
           <t xml:space="preserve">El Paso Blanco Avg product
 </t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>requesting information</t>
         </is>
       </c>
     </row>
@@ -4882,6 +5557,11 @@
 </t>
         </is>
       </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -4916,6 +5596,11 @@
 </t>
         </is>
       </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -4950,6 +5635,11 @@
 </t>
         </is>
       </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>sharing document</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -4984,6 +5674,11 @@
 </t>
         </is>
       </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -5018,6 +5713,11 @@
 </t>
         </is>
       </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -5052,6 +5752,11 @@
 </t>
         </is>
       </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>seeking investment</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -5086,6 +5791,11 @@
 </t>
         </is>
       </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -5120,6 +5830,11 @@
 </t>
         </is>
       </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>task scheduled</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -5154,6 +5869,11 @@
 </t>
         </is>
       </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -5184,6 +5904,11 @@
 </t>
         </is>
       </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>task assignment</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -5218,6 +5943,11 @@
 </t>
         </is>
       </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -5252,6 +5982,11 @@
 </t>
         </is>
       </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -5286,6 +6021,11 @@
 </t>
         </is>
       </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -5318,6 +6058,11 @@
         <is>
           <t xml:space="preserve">Re: Katy flatlands
 </t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>task assignment</t>
         </is>
       </c>
     </row>
@@ -5342,6 +6087,11 @@
 </t>
         </is>
       </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>sharing document</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -5376,6 +6126,11 @@
 </t>
         </is>
       </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>task scheduled</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -5410,6 +6165,11 @@
 </t>
         </is>
       </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -5444,6 +6204,11 @@
 </t>
         </is>
       </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -5478,6 +6243,11 @@
 </t>
         </is>
       </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>task scheduled</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -5512,6 +6282,11 @@
 </t>
         </is>
       </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -5546,6 +6321,11 @@
 </t>
         </is>
       </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>meeting schedule</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -5580,6 +6360,11 @@
 </t>
         </is>
       </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -5614,6 +6399,11 @@
 </t>
         </is>
       </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -5648,6 +6438,11 @@
 </t>
         </is>
       </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>sharing document</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -5682,6 +6477,11 @@
 </t>
         </is>
       </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -5716,6 +6516,11 @@
 </t>
         </is>
       </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>meeting schedule</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -5750,6 +6555,11 @@
 </t>
         </is>
       </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -5784,6 +6594,11 @@
 </t>
         </is>
       </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -5818,6 +6633,11 @@
 </t>
         </is>
       </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -5852,6 +6672,11 @@
 </t>
         </is>
       </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -5886,6 +6711,11 @@
 </t>
         </is>
       </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -5920,6 +6750,11 @@
 </t>
         </is>
       </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -5954,6 +6789,11 @@
 </t>
         </is>
       </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -5988,6 +6828,11 @@
 </t>
         </is>
       </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>sharing document</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -6022,6 +6867,11 @@
 </t>
         </is>
       </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>sharing document</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -6056,6 +6906,11 @@
 </t>
         </is>
       </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>sharing document</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -6090,6 +6945,11 @@
 </t>
         </is>
       </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>sharing document</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -6124,6 +6984,11 @@
 </t>
         </is>
       </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -6158,6 +7023,11 @@
 </t>
         </is>
       </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -6192,6 +7062,11 @@
 </t>
         </is>
       </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -6222,6 +7097,11 @@
 </t>
         </is>
       </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>task scheduled</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -6256,6 +7136,11 @@
 </t>
         </is>
       </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>seeking investment</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -6290,6 +7175,11 @@
 </t>
         </is>
       </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -6324,6 +7214,11 @@
 </t>
         </is>
       </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -6358,6 +7253,11 @@
 </t>
         </is>
       </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>seeking investment</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -6392,6 +7292,11 @@
 </t>
         </is>
       </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -6426,6 +7331,11 @@
 </t>
         </is>
       </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>task scheduled</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -6456,6 +7366,11 @@
 </t>
         </is>
       </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -6490,6 +7405,11 @@
 </t>
         </is>
       </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>sharing document</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -6524,6 +7444,11 @@
 </t>
         </is>
       </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>meeting schedule</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -6558,6 +7483,11 @@
 </t>
         </is>
       </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -6592,6 +7522,11 @@
 </t>
         </is>
       </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>seeking investment</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -6626,6 +7561,11 @@
 </t>
         </is>
       </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -6660,6 +7600,11 @@
 </t>
         </is>
       </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -6686,6 +7631,11 @@
 </t>
         </is>
       </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>task scheduled</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -6720,6 +7670,11 @@
 </t>
         </is>
       </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -6752,6 +7707,11 @@
         <is>
           <t xml:space="preserve">SW Gas
 </t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>requesting information</t>
         </is>
       </c>
     </row>
@@ -6780,6 +7740,11 @@
 </t>
         </is>
       </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -6814,6 +7779,11 @@
 </t>
         </is>
       </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>update</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -6848,6 +7818,11 @@
 </t>
         </is>
       </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>update</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -6880,6 +7855,11 @@
         <is>
           <t xml:space="preserve">Re: This morning's Commission meeting delayed
 </t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>meeting schedule</t>
         </is>
       </c>
     </row>
@@ -6908,6 +7888,11 @@
 </t>
         </is>
       </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -6942,6 +7927,11 @@
 </t>
         </is>
       </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -6976,6 +7966,11 @@
 </t>
         </is>
       </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>sharing document</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -7010,6 +8005,11 @@
 </t>
         </is>
       </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -7044,6 +8044,11 @@
 </t>
         </is>
       </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>sharing document</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -7078,6 +8083,11 @@
 </t>
         </is>
       </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>sharing document</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -7112,6 +8122,11 @@
 </t>
         </is>
       </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -7146,6 +8161,11 @@
 </t>
         </is>
       </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>task scheduled</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -7178,6 +8198,11 @@
         <is>
           <t xml:space="preserve">Re: your moms birthday
 </t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>sharing document</t>
         </is>
       </c>
     </row>
@@ -7202,6 +8227,11 @@
 </t>
         </is>
       </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -7236,6 +8266,11 @@
 </t>
         </is>
       </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>meeting schedule</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -7270,6 +8305,11 @@
 </t>
         </is>
       </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -7304,6 +8344,11 @@
 </t>
         </is>
       </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -7338,6 +8383,11 @@
 </t>
         </is>
       </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -7372,6 +8422,11 @@
 </t>
         </is>
       </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>meeting schedule</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -7406,6 +8461,11 @@
 </t>
         </is>
       </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -7440,6 +8500,11 @@
 </t>
         </is>
       </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>meeting schedule</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -7474,6 +8539,11 @@
 </t>
         </is>
       </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -7508,6 +8578,11 @@
 </t>
         </is>
       </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -7542,6 +8617,11 @@
 </t>
         </is>
       </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -7576,6 +8656,11 @@
 </t>
         </is>
       </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -7610,6 +8695,11 @@
 </t>
         </is>
       </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>sharing document</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -7644,6 +8734,11 @@
 </t>
         </is>
       </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -7678,6 +8773,11 @@
 </t>
         </is>
       </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -7708,6 +8808,11 @@
 </t>
         </is>
       </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -7742,6 +8847,11 @@
 </t>
         </is>
       </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -7776,6 +8886,11 @@
 </t>
         </is>
       </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -7810,6 +8925,11 @@
 </t>
         </is>
       </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -7844,6 +8964,11 @@
 </t>
         </is>
       </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>task assignment</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -7878,6 +9003,11 @@
 </t>
         </is>
       </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>task assignment</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -7912,6 +9042,11 @@
 </t>
         </is>
       </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -7946,6 +9081,11 @@
 </t>
         </is>
       </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>sharing document</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -7980,6 +9120,11 @@
 </t>
         </is>
       </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>meeting schedule</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -8014,6 +9159,11 @@
 </t>
         </is>
       </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -8048,6 +9198,11 @@
 </t>
         </is>
       </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>sharing document</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -8082,6 +9237,11 @@
 </t>
         </is>
       </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -8116,6 +9276,11 @@
 </t>
         </is>
       </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>meeting schedule</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -8150,6 +9315,11 @@
 </t>
         </is>
       </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>update</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -8184,6 +9354,11 @@
 </t>
         </is>
       </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>update</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -8218,6 +9393,11 @@
 </t>
         </is>
       </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>task scheduled</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -8252,6 +9432,11 @@
 </t>
         </is>
       </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -8286,6 +9471,11 @@
 </t>
         </is>
       </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -8320,6 +9510,11 @@
 </t>
         </is>
       </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -8354,6 +9549,11 @@
 </t>
         </is>
       </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -8384,6 +9584,11 @@
 </t>
         </is>
       </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -8418,6 +9623,11 @@
 </t>
         </is>
       </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -8452,6 +9662,11 @@
 </t>
         </is>
       </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -8486,6 +9701,11 @@
 </t>
         </is>
       </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -8520,6 +9740,11 @@
 </t>
         </is>
       </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -8554,6 +9779,11 @@
 </t>
         </is>
       </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -8588,6 +9818,11 @@
 </t>
         </is>
       </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -8622,6 +9857,11 @@
 </t>
         </is>
       </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>meeting schedule</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -8656,6 +9896,11 @@
 </t>
         </is>
       </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -8690,6 +9935,11 @@
 </t>
         </is>
       </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -8724,6 +9974,11 @@
 </t>
         </is>
       </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -8758,6 +10013,11 @@
 </t>
         </is>
       </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -8792,6 +10052,11 @@
 </t>
         </is>
       </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -8826,6 +10091,11 @@
 </t>
         </is>
       </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -8860,6 +10130,11 @@
 </t>
         </is>
       </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -8894,6 +10169,11 @@
 </t>
         </is>
       </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -8924,6 +10204,11 @@
 </t>
         </is>
       </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -8958,6 +10243,11 @@
 </t>
         </is>
       </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>task scheduled</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -8992,6 +10282,11 @@
 </t>
         </is>
       </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>sharing document</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -9026,6 +10321,11 @@
 </t>
         </is>
       </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>documentation</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -9060,6 +10360,11 @@
 </t>
         </is>
       </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -9094,6 +10399,11 @@
 </t>
         </is>
       </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -9128,6 +10438,11 @@
 </t>
         </is>
       </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -9162,6 +10477,11 @@
 </t>
         </is>
       </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -9192,6 +10512,11 @@
 </t>
         </is>
       </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -9226,6 +10551,11 @@
 </t>
         </is>
       </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -9260,6 +10590,11 @@
 </t>
         </is>
       </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -9294,6 +10629,11 @@
 </t>
         </is>
       </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -9328,6 +10668,11 @@
 </t>
         </is>
       </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -9362,6 +10707,11 @@
 </t>
         </is>
       </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -9396,6 +10746,11 @@
 </t>
         </is>
       </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -9430,6 +10785,11 @@
 </t>
         </is>
       </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -9464,6 +10824,11 @@
 </t>
         </is>
       </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -9498,6 +10863,11 @@
 </t>
         </is>
       </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -9532,6 +10902,11 @@
 </t>
         </is>
       </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>sharing document</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -9566,6 +10941,11 @@
 </t>
         </is>
       </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -9596,6 +10976,11 @@
 </t>
         </is>
       </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -9630,6 +11015,11 @@
 </t>
         </is>
       </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -9664,6 +11054,11 @@
 </t>
         </is>
       </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>task scheduled</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -9698,6 +11093,11 @@
 </t>
         </is>
       </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -9728,6 +11128,11 @@
 </t>
         </is>
       </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>sharing document</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -9758,6 +11163,11 @@
 </t>
         </is>
       </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>sharing document</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -9792,6 +11202,11 @@
 </t>
         </is>
       </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -9822,6 +11237,11 @@
 </t>
         </is>
       </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>sharing document</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -9856,6 +11276,11 @@
 </t>
         </is>
       </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>meeting schedule</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -9890,6 +11315,11 @@
 </t>
         </is>
       </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -9924,6 +11354,11 @@
 </t>
         </is>
       </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -9958,6 +11393,11 @@
 </t>
         </is>
       </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>meeting schedule</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -9992,6 +11432,11 @@
 </t>
         </is>
       </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -10022,6 +11467,11 @@
 </t>
         </is>
       </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>update</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -10056,6 +11506,11 @@
 </t>
         </is>
       </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>meeting schedule</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -10090,6 +11545,11 @@
 </t>
         </is>
       </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -10124,6 +11584,11 @@
 </t>
         </is>
       </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -10158,6 +11623,11 @@
 </t>
         </is>
       </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -10192,6 +11662,11 @@
 </t>
         </is>
       </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -10226,6 +11701,11 @@
 </t>
         </is>
       </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -10260,6 +11740,11 @@
 </t>
         </is>
       </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -10294,6 +11779,11 @@
 </t>
         </is>
       </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -10328,6 +11818,11 @@
 </t>
         </is>
       </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -10362,6 +11857,11 @@
 </t>
         </is>
       </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -10396,6 +11896,11 @@
 </t>
         </is>
       </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -10430,6 +11935,11 @@
 </t>
         </is>
       </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -10464,6 +11974,11 @@
 </t>
         </is>
       </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -10498,6 +12013,11 @@
 </t>
         </is>
       </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>meeting schedule</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -10532,6 +12052,11 @@
 </t>
         </is>
       </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>meeting schedule</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -10562,6 +12087,11 @@
 </t>
         </is>
       </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>meeting schedule</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -10596,6 +12126,11 @@
 </t>
         </is>
       </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>meeting schedule</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -10630,6 +12165,11 @@
 </t>
         </is>
       </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -10664,6 +12204,11 @@
 </t>
         </is>
       </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -10698,6 +12243,11 @@
 </t>
         </is>
       </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -10732,6 +12282,11 @@
 </t>
         </is>
       </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -10766,6 +12321,11 @@
 </t>
         </is>
       </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>meeting schedule</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -10800,6 +12360,11 @@
 </t>
         </is>
       </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -10834,6 +12399,11 @@
 </t>
         </is>
       </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -10868,6 +12438,11 @@
 </t>
         </is>
       </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -10898,6 +12473,11 @@
 </t>
         </is>
       </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>meeting schedule</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -10932,6 +12512,11 @@
 </t>
         </is>
       </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -10966,6 +12551,11 @@
 </t>
         </is>
       </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -11000,6 +12590,11 @@
 </t>
         </is>
       </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>seeking investment</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -11034,6 +12629,11 @@
 </t>
         </is>
       </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>discussion</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -11068,6 +12668,11 @@
 </t>
         </is>
       </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>meeting schedule</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -11102,6 +12707,11 @@
 </t>
         </is>
       </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -11136,6 +12746,11 @@
 </t>
         </is>
       </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -11170,6 +12785,11 @@
 </t>
         </is>
       </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>task scheduled</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -11204,6 +12824,11 @@
 </t>
         </is>
       </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -11238,6 +12863,11 @@
 </t>
         </is>
       </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -11272,6 +12902,11 @@
 </t>
         </is>
       </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -11302,6 +12937,11 @@
 </t>
         </is>
       </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>sharing document</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -11330,6 +12970,11 @@
         <is>
           <t xml:space="preserve">Mime-Version: 1.0
 </t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>sharing document</t>
         </is>
       </c>
     </row>
@@ -11354,6 +12999,11 @@
 </t>
         </is>
       </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>meeting schedule</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -11388,6 +13038,11 @@
 </t>
         </is>
       </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>sharing document</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -11422,6 +13077,11 @@
 </t>
         </is>
       </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -11456,6 +13116,11 @@
 </t>
         </is>
       </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -11486,6 +13151,11 @@
 </t>
         </is>
       </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>task scheduled</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -11520,6 +13190,11 @@
 </t>
         </is>
       </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -11554,6 +13229,11 @@
 </t>
         </is>
       </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -11588,6 +13268,11 @@
 </t>
         </is>
       </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -11618,6 +13303,11 @@
 </t>
         </is>
       </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>meeting schedule</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -11652,6 +13342,11 @@
 </t>
         </is>
       </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>sharing document</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -11686,6 +13381,11 @@
 </t>
         </is>
       </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>seeking investment</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -11720,6 +13420,11 @@
 </t>
         </is>
       </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>meeting schedule</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -11754,6 +13459,11 @@
 </t>
         </is>
       </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -11788,6 +13498,11 @@
 </t>
         </is>
       </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -11818,6 +13533,11 @@
 </t>
         </is>
       </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>seeking investment</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -11852,6 +13572,11 @@
 </t>
         </is>
       </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -11886,6 +13611,11 @@
 </t>
         </is>
       </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -11916,6 +13646,11 @@
 </t>
         </is>
       </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -11950,6 +13685,11 @@
 </t>
         </is>
       </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>task assignment</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -11978,6 +13718,11 @@
         <is>
           <t xml:space="preserve">Mime-Version: 1.0
 </t>
+        </is>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>seeking investment</t>
         </is>
       </c>
     </row>
@@ -12002,6 +13747,11 @@
 </t>
         </is>
       </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>meeting schedule</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr"/>
@@ -12024,6 +13774,11 @@
 </t>
         </is>
       </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr"/>
@@ -12046,6 +13801,11 @@
 </t>
         </is>
       </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr"/>
@@ -12068,6 +13828,11 @@
 </t>
         </is>
       </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>meeting schedule</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -12102,6 +13867,11 @@
 </t>
         </is>
       </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -12136,6 +13906,11 @@
 </t>
         </is>
       </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -12166,6 +13941,11 @@
 </t>
         </is>
       </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>meeting schedule</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -12196,6 +13976,11 @@
 </t>
         </is>
       </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>sharing document</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -12224,6 +14009,11 @@
         <is>
           <t xml:space="preserve">Mime-Version: 1.0
 </t>
+        </is>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>sharing document</t>
         </is>
       </c>
     </row>
@@ -12248,6 +14038,11 @@
 </t>
         </is>
       </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr"/>
@@ -12270,6 +14065,11 @@
 </t>
         </is>
       </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -12300,6 +14100,11 @@
 </t>
         </is>
       </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>seeking investment</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -12334,6 +14139,11 @@
 </t>
         </is>
       </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -12368,6 +14178,11 @@
 </t>
         </is>
       </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -12398,6 +14213,11 @@
 </t>
         </is>
       </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -12432,6 +14252,11 @@
 </t>
         </is>
       </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>seeking investment</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -12462,6 +14287,11 @@
 </t>
         </is>
       </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -12496,6 +14326,11 @@
 </t>
         </is>
       </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -12530,6 +14365,11 @@
 </t>
         </is>
       </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>sharing document</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -12564,6 +14404,11 @@
 </t>
         </is>
       </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -12598,6 +14443,11 @@
 </t>
         </is>
       </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -12632,6 +14482,11 @@
 </t>
         </is>
       </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>sharing document</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -12662,6 +14517,11 @@
 </t>
         </is>
       </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -12692,6 +14552,11 @@
 </t>
         </is>
       </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -12726,6 +14591,11 @@
 </t>
         </is>
       </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -12756,6 +14626,11 @@
 </t>
         </is>
       </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>sharing document</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -12790,6 +14665,11 @@
 </t>
         </is>
       </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>discussion</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -12824,6 +14704,11 @@
 </t>
         </is>
       </c>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>sharing document</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -12854,6 +14739,11 @@
 </t>
         </is>
       </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>sharing document</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -12884,6 +14774,11 @@
 </t>
         </is>
       </c>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>sharing document</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -12914,6 +14809,11 @@
 </t>
         </is>
       </c>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -12948,6 +14848,11 @@
 </t>
         </is>
       </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -12978,6 +14883,11 @@
 </t>
         </is>
       </c>
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -13012,6 +14922,11 @@
 </t>
         </is>
       </c>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -13042,6 +14957,11 @@
 </t>
         </is>
       </c>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>sharing document</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -13072,6 +14992,11 @@
 </t>
         </is>
       </c>
+      <c r="G385" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -13102,6 +15027,11 @@
 </t>
         </is>
       </c>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -13136,6 +15066,11 @@
 </t>
         </is>
       </c>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -13166,6 +15101,11 @@
 </t>
         </is>
       </c>
+      <c r="G388" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -13196,6 +15136,11 @@
 </t>
         </is>
       </c>
+      <c r="G389" t="inlineStr">
+        <is>
+          <t>sharing document</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -13226,6 +15171,11 @@
 </t>
         </is>
       </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>sharing document</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -13256,6 +15206,11 @@
 </t>
         </is>
       </c>
+      <c r="G391" t="inlineStr">
+        <is>
+          <t>sharing document</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -13286,6 +15241,11 @@
 </t>
         </is>
       </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>sharing document</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -13320,6 +15280,11 @@
 </t>
         </is>
       </c>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -13350,6 +15315,11 @@
 </t>
         </is>
       </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -13380,6 +15350,11 @@
 </t>
         </is>
       </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -13410,6 +15385,11 @@
 </t>
         </is>
       </c>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>task scheduled</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -13444,6 +15424,11 @@
 </t>
         </is>
       </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>seeking investment</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -13478,6 +15463,11 @@
 </t>
         </is>
       </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -13508,6 +15498,11 @@
 </t>
         </is>
       </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -13542,6 +15537,11 @@
 </t>
         </is>
       </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>meeting schedule</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -13576,6 +15576,11 @@
 </t>
         </is>
       </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -13606,6 +15611,11 @@
 </t>
         </is>
       </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t>sharing document</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -13640,6 +15650,11 @@
 </t>
         </is>
       </c>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>sharing document</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -13672,6 +15687,11 @@
         <is>
           <t xml:space="preserve">Re: the stage
 </t>
+        </is>
+      </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>making introduction</t>
         </is>
       </c>
     </row>
@@ -13696,6 +15716,11 @@
 </t>
         </is>
       </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>sharing document</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -13730,6 +15755,11 @@
 </t>
         </is>
       </c>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -13764,6 +15794,11 @@
 </t>
         </is>
       </c>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -13794,6 +15829,11 @@
 </t>
         </is>
       </c>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t>seeking investment</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -13828,6 +15868,11 @@
 </t>
         </is>
       </c>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -13856,6 +15901,11 @@
         <is>
           <t xml:space="preserve">Cc: llewter@austin.rr.com, jacquestc@aol.com
 </t>
+        </is>
+      </c>
+      <c r="G410" t="inlineStr">
+        <is>
+          <t>seeking investment</t>
         </is>
       </c>
     </row>
@@ -13880,6 +15930,11 @@
 </t>
         </is>
       </c>
+      <c r="G411" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -13914,6 +15969,11 @@
 </t>
         </is>
       </c>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -13948,6 +16008,11 @@
 </t>
         </is>
       </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -13982,6 +16047,11 @@
 </t>
         </is>
       </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -14012,6 +16082,11 @@
 </t>
         </is>
       </c>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>sharing document</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -14042,6 +16117,11 @@
 </t>
         </is>
       </c>
+      <c r="G416" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -14072,6 +16152,11 @@
 </t>
         </is>
       </c>
+      <c r="G417" t="inlineStr">
+        <is>
+          <t>task scheduled</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -14102,6 +16187,11 @@
 </t>
         </is>
       </c>
+      <c r="G418" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -14136,6 +16226,11 @@
 </t>
         </is>
       </c>
+      <c r="G419" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -14170,6 +16265,11 @@
 </t>
         </is>
       </c>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -14204,6 +16304,11 @@
 </t>
         </is>
       </c>
+      <c r="G421" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -14234,6 +16339,11 @@
 </t>
         </is>
       </c>
+      <c r="G422" t="inlineStr">
+        <is>
+          <t>sharing document</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -14268,6 +16378,11 @@
 </t>
         </is>
       </c>
+      <c r="G423" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -14298,6 +16413,11 @@
 </t>
         </is>
       </c>
+      <c r="G424" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -14328,6 +16448,11 @@
 </t>
         </is>
       </c>
+      <c r="G425" t="inlineStr">
+        <is>
+          <t>task scheduled</t>
+        </is>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -14362,6 +16487,11 @@
 </t>
         </is>
       </c>
+      <c r="G426" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -14396,6 +16526,11 @@
 </t>
         </is>
       </c>
+      <c r="G427" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -14430,6 +16565,11 @@
 </t>
         </is>
       </c>
+      <c r="G428" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -14464,6 +16604,11 @@
 </t>
         </is>
       </c>
+      <c r="G429" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -14498,6 +16643,11 @@
 </t>
         </is>
       </c>
+      <c r="G430" t="inlineStr">
+        <is>
+          <t>meeting schedule</t>
+        </is>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -14532,6 +16682,11 @@
 </t>
         </is>
       </c>
+      <c r="G431" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -14566,6 +16721,11 @@
 </t>
         </is>
       </c>
+      <c r="G432" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -14600,6 +16760,11 @@
 </t>
         </is>
       </c>
+      <c r="G433" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -14634,6 +16799,11 @@
 </t>
         </is>
       </c>
+      <c r="G434" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -14664,6 +16834,11 @@
 </t>
         </is>
       </c>
+      <c r="G435" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -14694,6 +16869,11 @@
 </t>
         </is>
       </c>
+      <c r="G436" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -14728,6 +16908,11 @@
 </t>
         </is>
       </c>
+      <c r="G437" t="inlineStr">
+        <is>
+          <t>seeking investment</t>
+        </is>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -14758,6 +16943,11 @@
 </t>
         </is>
       </c>
+      <c r="G438" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -14792,6 +16982,11 @@
 </t>
         </is>
       </c>
+      <c r="G439" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -14822,6 +17017,11 @@
 </t>
         </is>
       </c>
+      <c r="G440" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -14852,6 +17052,11 @@
 </t>
         </is>
       </c>
+      <c r="G441" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -14886,6 +17091,11 @@
 </t>
         </is>
       </c>
+      <c r="G442" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -14920,6 +17130,11 @@
 </t>
         </is>
       </c>
+      <c r="G443" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -14950,6 +17165,11 @@
 </t>
         </is>
       </c>
+      <c r="G444" t="inlineStr">
+        <is>
+          <t>sharing document</t>
+        </is>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -14980,6 +17200,11 @@
 </t>
         </is>
       </c>
+      <c r="G445" t="inlineStr">
+        <is>
+          <t>seeking investment</t>
+        </is>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -15014,6 +17239,11 @@
 </t>
         </is>
       </c>
+      <c r="G446" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -15044,6 +17274,11 @@
 </t>
         </is>
       </c>
+      <c r="G447" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -15074,6 +17309,11 @@
 </t>
         </is>
       </c>
+      <c r="G448" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -15104,6 +17344,11 @@
 </t>
         </is>
       </c>
+      <c r="G449" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -15134,6 +17379,11 @@
 </t>
         </is>
       </c>
+      <c r="G450" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -15164,6 +17414,11 @@
 </t>
         </is>
       </c>
+      <c r="G451" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -15198,6 +17453,11 @@
 </t>
         </is>
       </c>
+      <c r="G452" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -15232,6 +17492,11 @@
 </t>
         </is>
       </c>
+      <c r="G453" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -15262,6 +17527,11 @@
 </t>
         </is>
       </c>
+      <c r="G454" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -15296,6 +17566,11 @@
 </t>
         </is>
       </c>
+      <c r="G455" t="inlineStr">
+        <is>
+          <t>sharing document</t>
+        </is>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -15330,6 +17605,11 @@
 </t>
         </is>
       </c>
+      <c r="G456" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -15360,6 +17640,11 @@
 </t>
         </is>
       </c>
+      <c r="G457" t="inlineStr">
+        <is>
+          <t>sharing document</t>
+        </is>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -15394,6 +17679,11 @@
 </t>
         </is>
       </c>
+      <c r="G458" t="inlineStr">
+        <is>
+          <t>sharing document</t>
+        </is>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -15428,6 +17718,11 @@
 </t>
         </is>
       </c>
+      <c r="G459" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -15458,6 +17753,11 @@
 </t>
         </is>
       </c>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>sharing document</t>
+        </is>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -15488,6 +17788,11 @@
 </t>
         </is>
       </c>
+      <c r="G461" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -15518,6 +17823,11 @@
 </t>
         </is>
       </c>
+      <c r="G462" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -15552,6 +17862,11 @@
 </t>
         </is>
       </c>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -15582,6 +17897,11 @@
 </t>
         </is>
       </c>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t>seeking investment</t>
+        </is>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -15612,6 +17932,11 @@
 </t>
         </is>
       </c>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
@@ -15646,6 +17971,11 @@
 </t>
         </is>
       </c>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -15680,6 +18010,11 @@
 </t>
         </is>
       </c>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -15714,6 +18049,11 @@
 </t>
         </is>
       </c>
+      <c r="G468" t="inlineStr">
+        <is>
+          <t>sharing document</t>
+        </is>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -15744,6 +18084,11 @@
 </t>
         </is>
       </c>
+      <c r="G469" t="inlineStr">
+        <is>
+          <t>seeking investment</t>
+        </is>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -15774,6 +18119,11 @@
 </t>
         </is>
       </c>
+      <c r="G470" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
@@ -15808,6 +18158,11 @@
 </t>
         </is>
       </c>
+      <c r="G471" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -15842,6 +18197,11 @@
 </t>
         </is>
       </c>
+      <c r="G472" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
@@ -15872,6 +18232,11 @@
 </t>
         </is>
       </c>
+      <c r="G473" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
@@ -15902,6 +18267,11 @@
 </t>
         </is>
       </c>
+      <c r="G474" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
@@ -15932,6 +18302,11 @@
 </t>
         </is>
       </c>
+      <c r="G475" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
@@ -15966,6 +18341,11 @@
 </t>
         </is>
       </c>
+      <c r="G476" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
@@ -16000,6 +18380,11 @@
 </t>
         </is>
       </c>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>meeting schedule</t>
+        </is>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
@@ -16034,6 +18419,11 @@
 </t>
         </is>
       </c>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t>meeting schedule</t>
+        </is>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
@@ -16064,6 +18454,11 @@
 </t>
         </is>
       </c>
+      <c r="G479" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
@@ -16094,6 +18489,11 @@
 </t>
         </is>
       </c>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t>meeting schedule</t>
+        </is>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
@@ -16128,6 +18528,11 @@
 </t>
         </is>
       </c>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
@@ -16160,6 +18565,11 @@
         <is>
           <t xml:space="preserve">Re: web site
 </t>
+        </is>
+      </c>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t>requesting information</t>
         </is>
       </c>
     </row>
@@ -16184,6 +18594,11 @@
 </t>
         </is>
       </c>
+      <c r="G483" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
@@ -16218,6 +18633,11 @@
 </t>
         </is>
       </c>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
@@ -16252,6 +18672,11 @@
 </t>
         </is>
       </c>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
@@ -16282,6 +18707,11 @@
 </t>
         </is>
       </c>
+      <c r="G486" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
@@ -16312,6 +18742,11 @@
 </t>
         </is>
       </c>
+      <c r="G487" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
@@ -16346,6 +18781,11 @@
 </t>
         </is>
       </c>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
@@ -16376,6 +18816,11 @@
 </t>
         </is>
       </c>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>discussion</t>
+        </is>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
@@ -16406,6 +18851,11 @@
 </t>
         </is>
       </c>
+      <c r="G490" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
@@ -16440,6 +18890,11 @@
 </t>
         </is>
       </c>
+      <c r="G491" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
@@ -16470,6 +18925,11 @@
 </t>
         </is>
       </c>
+      <c r="G492" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
@@ -16500,6 +18960,11 @@
 </t>
         </is>
       </c>
+      <c r="G493" t="inlineStr">
+        <is>
+          <t>meeting schedule</t>
+        </is>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
@@ -16534,6 +18999,11 @@
 </t>
         </is>
       </c>
+      <c r="G494" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
@@ -16568,6 +19038,11 @@
 </t>
         </is>
       </c>
+      <c r="G495" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
@@ -16602,6 +19077,11 @@
 </t>
         </is>
       </c>
+      <c r="G496" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
@@ -16636,6 +19116,11 @@
 </t>
         </is>
       </c>
+      <c r="G497" t="inlineStr">
+        <is>
+          <t>meeting schedule</t>
+        </is>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
@@ -16670,6 +19155,11 @@
 </t>
         </is>
       </c>
+      <c r="G498" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
@@ -16704,6 +19194,11 @@
 </t>
         </is>
       </c>
+      <c r="G499" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
@@ -16734,6 +19229,11 @@
 </t>
         </is>
       </c>
+      <c r="G500" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
@@ -16764,6 +19264,11 @@
 </t>
         </is>
       </c>
+      <c r="G501" t="inlineStr">
+        <is>
+          <t>task scheduled</t>
+        </is>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
@@ -16798,6 +19303,11 @@
 </t>
         </is>
       </c>
+      <c r="G502" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
@@ -16828,6 +19338,11 @@
 </t>
         </is>
       </c>
+      <c r="G503" t="inlineStr">
+        <is>
+          <t>task scheduled</t>
+        </is>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
@@ -16858,6 +19373,11 @@
 </t>
         </is>
       </c>
+      <c r="G504" t="inlineStr">
+        <is>
+          <t>sharing document</t>
+        </is>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
@@ -16892,6 +19412,11 @@
 </t>
         </is>
       </c>
+      <c r="G505" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
@@ -16922,6 +19447,11 @@
 </t>
         </is>
       </c>
+      <c r="G506" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
@@ -16956,6 +19486,11 @@
 </t>
         </is>
       </c>
+      <c r="G507" t="inlineStr">
+        <is>
+          <t>meeting schedule</t>
+        </is>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
@@ -16990,6 +19525,11 @@
 </t>
         </is>
       </c>
+      <c r="G508" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
@@ -17024,6 +19564,11 @@
 </t>
         </is>
       </c>
+      <c r="G509" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
@@ -17054,6 +19599,11 @@
 </t>
         </is>
       </c>
+      <c r="G510" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
@@ -17084,6 +19634,11 @@
 </t>
         </is>
       </c>
+      <c r="G511" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
@@ -17114,6 +19669,11 @@
 </t>
         </is>
       </c>
+      <c r="G512" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
@@ -17148,6 +19708,11 @@
 </t>
         </is>
       </c>
+      <c r="G513" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
@@ -17182,6 +19747,11 @@
 </t>
         </is>
       </c>
+      <c r="G514" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
@@ -17216,6 +19786,11 @@
 </t>
         </is>
       </c>
+      <c r="G515" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
@@ -17250,6 +19825,11 @@
 </t>
         </is>
       </c>
+      <c r="G516" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
@@ -17284,6 +19864,11 @@
 </t>
         </is>
       </c>
+      <c r="G517" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
@@ -17314,6 +19899,11 @@
 </t>
         </is>
       </c>
+      <c r="G518" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
@@ -17348,6 +19938,11 @@
 </t>
         </is>
       </c>
+      <c r="G519" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
@@ -17382,6 +19977,11 @@
 </t>
         </is>
       </c>
+      <c r="G520" t="inlineStr">
+        <is>
+          <t>seeking investment</t>
+        </is>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
@@ -17412,6 +20012,11 @@
 </t>
         </is>
       </c>
+      <c r="G521" t="inlineStr">
+        <is>
+          <t>seeking investment</t>
+        </is>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
@@ -17446,6 +20051,11 @@
 </t>
         </is>
       </c>
+      <c r="G522" t="inlineStr">
+        <is>
+          <t>seeking investment</t>
+        </is>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
@@ -17480,6 +20090,11 @@
 </t>
         </is>
       </c>
+      <c r="G523" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
@@ -17510,6 +20125,11 @@
 </t>
         </is>
       </c>
+      <c r="G524" t="inlineStr">
+        <is>
+          <t>seeking investment</t>
+        </is>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
@@ -17540,6 +20160,11 @@
 </t>
         </is>
       </c>
+      <c r="G525" t="inlineStr">
+        <is>
+          <t>meeting schedule</t>
+        </is>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
@@ -17574,6 +20199,11 @@
 </t>
         </is>
       </c>
+      <c r="G526" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
@@ -17604,6 +20234,11 @@
 </t>
         </is>
       </c>
+      <c r="G527" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
@@ -17634,6 +20269,11 @@
 </t>
         </is>
       </c>
+      <c r="G528" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
@@ -17664,6 +20304,11 @@
 </t>
         </is>
       </c>
+      <c r="G529" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
@@ -17698,6 +20343,11 @@
 </t>
         </is>
       </c>
+      <c r="G530" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
@@ -17732,6 +20382,11 @@
 </t>
         </is>
       </c>
+      <c r="G531" t="inlineStr">
+        <is>
+          <t>documentation</t>
+        </is>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
@@ -17766,6 +20421,11 @@
 </t>
         </is>
       </c>
+      <c r="G532" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
@@ -17800,6 +20460,11 @@
 </t>
         </is>
       </c>
+      <c r="G533" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
@@ -17834,6 +20499,11 @@
 </t>
         </is>
       </c>
+      <c r="G534" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
@@ -17868,6 +20538,11 @@
 </t>
         </is>
       </c>
+      <c r="G535" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
@@ -17898,6 +20573,11 @@
 </t>
         </is>
       </c>
+      <c r="G536" t="inlineStr">
+        <is>
+          <t>sharing document</t>
+        </is>
+      </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
@@ -17926,6 +20606,11 @@
         <is>
           <t xml:space="preserve">Mime-Version: 1.0
 </t>
+        </is>
+      </c>
+      <c r="G537" t="inlineStr">
+        <is>
+          <t>seeking investment</t>
         </is>
       </c>
     </row>
@@ -17950,6 +20635,11 @@
 </t>
         </is>
       </c>
+      <c r="G538" t="inlineStr">
+        <is>
+          <t>seeking investment</t>
+        </is>
+      </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
@@ -17980,6 +20670,11 @@
 </t>
         </is>
       </c>
+      <c r="G539" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
@@ -18014,6 +20709,11 @@
 </t>
         </is>
       </c>
+      <c r="G540" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
@@ -18044,6 +20744,11 @@
 </t>
         </is>
       </c>
+      <c r="G541" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
@@ -18078,6 +20783,11 @@
 </t>
         </is>
       </c>
+      <c r="G542" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
@@ -18112,6 +20822,11 @@
 </t>
         </is>
       </c>
+      <c r="G543" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
@@ -18146,6 +20861,11 @@
 </t>
         </is>
       </c>
+      <c r="G544" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
@@ -18180,6 +20900,11 @@
 </t>
         </is>
       </c>
+      <c r="G545" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
@@ -18214,6 +20939,11 @@
 </t>
         </is>
       </c>
+      <c r="G546" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
@@ -18248,6 +20978,11 @@
 </t>
         </is>
       </c>
+      <c r="G547" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
@@ -18278,6 +21013,11 @@
 </t>
         </is>
       </c>
+      <c r="G548" t="inlineStr">
+        <is>
+          <t>meeting schedule</t>
+        </is>
+      </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
@@ -18308,6 +21048,11 @@
 </t>
         </is>
       </c>
+      <c r="G549" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
@@ -18338,6 +21083,11 @@
 </t>
         </is>
       </c>
+      <c r="G550" t="inlineStr">
+        <is>
+          <t>sharing document</t>
+        </is>
+      </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
@@ -18372,6 +21122,11 @@
 </t>
         </is>
       </c>
+      <c r="G551" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
@@ -18406,6 +21161,11 @@
 </t>
         </is>
       </c>
+      <c r="G552" t="inlineStr">
+        <is>
+          <t>sharing document</t>
+        </is>
+      </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
@@ -18440,6 +21200,11 @@
 </t>
         </is>
       </c>
+      <c r="G553" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
@@ -18470,6 +21235,11 @@
 </t>
         </is>
       </c>
+      <c r="G554" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
@@ -18500,6 +21270,11 @@
 </t>
         </is>
       </c>
+      <c r="G555" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
@@ -18530,6 +21305,11 @@
 </t>
         </is>
       </c>
+      <c r="G556" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
@@ -18564,6 +21344,11 @@
 </t>
         </is>
       </c>
+      <c r="G557" t="inlineStr">
+        <is>
+          <t>sharing document</t>
+        </is>
+      </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
@@ -18598,6 +21383,11 @@
 </t>
         </is>
       </c>
+      <c r="G558" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
@@ -18632,6 +21422,11 @@
 </t>
         </is>
       </c>
+      <c r="G559" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
@@ -18662,6 +21457,11 @@
 </t>
         </is>
       </c>
+      <c r="G560" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
@@ -18696,6 +21496,11 @@
 </t>
         </is>
       </c>
+      <c r="G561" t="inlineStr">
+        <is>
+          <t>meeting schedule</t>
+        </is>
+      </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
@@ -18726,6 +21531,11 @@
 </t>
         </is>
       </c>
+      <c r="G562" t="inlineStr">
+        <is>
+          <t>sharing document</t>
+        </is>
+      </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
@@ -18760,6 +21570,11 @@
 </t>
         </is>
       </c>
+      <c r="G563" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
@@ -18794,6 +21609,11 @@
 </t>
         </is>
       </c>
+      <c r="G564" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
@@ -18828,6 +21648,11 @@
 </t>
         </is>
       </c>
+      <c r="G565" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
@@ -18862,6 +21687,11 @@
 </t>
         </is>
       </c>
+      <c r="G566" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
@@ -18892,6 +21722,11 @@
 </t>
         </is>
       </c>
+      <c r="G567" t="inlineStr">
+        <is>
+          <t>sharing document</t>
+        </is>
+      </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
@@ -18922,6 +21757,11 @@
 </t>
         </is>
       </c>
+      <c r="G568" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
@@ -18956,6 +21796,11 @@
 </t>
         </is>
       </c>
+      <c r="G569" t="inlineStr">
+        <is>
+          <t>meeting schedule</t>
+        </is>
+      </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
@@ -18990,6 +21835,11 @@
 </t>
         </is>
       </c>
+      <c r="G570" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
@@ -19020,6 +21870,11 @@
 </t>
         </is>
       </c>
+      <c r="G571" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
@@ -19054,6 +21909,11 @@
 </t>
         </is>
       </c>
+      <c r="G572" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
@@ -19084,6 +21944,11 @@
 </t>
         </is>
       </c>
+      <c r="G573" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
@@ -19118,6 +21983,11 @@
 </t>
         </is>
       </c>
+      <c r="G574" t="inlineStr">
+        <is>
+          <t>meeting schedule</t>
+        </is>
+      </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
@@ -19152,6 +22022,11 @@
 </t>
         </is>
       </c>
+      <c r="G575" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
@@ -19182,6 +22057,11 @@
 </t>
         </is>
       </c>
+      <c r="G576" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
@@ -19216,6 +22096,11 @@
 </t>
         </is>
       </c>
+      <c r="G577" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
@@ -19246,6 +22131,11 @@
 </t>
         </is>
       </c>
+      <c r="G578" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
@@ -19280,6 +22170,11 @@
 </t>
         </is>
       </c>
+      <c r="G579" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
@@ -19314,6 +22209,11 @@
 </t>
         </is>
       </c>
+      <c r="G580" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
@@ -19348,6 +22248,11 @@
 </t>
         </is>
       </c>
+      <c r="G581" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
@@ -19382,6 +22287,11 @@
 </t>
         </is>
       </c>
+      <c r="G582" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
@@ -19416,6 +22326,11 @@
 </t>
         </is>
       </c>
+      <c r="G583" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
@@ -19450,6 +22365,11 @@
 </t>
         </is>
       </c>
+      <c r="G584" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
@@ -19484,6 +22404,11 @@
 </t>
         </is>
       </c>
+      <c r="G585" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
@@ -19518,6 +22443,11 @@
 </t>
         </is>
       </c>
+      <c r="G586" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
@@ -19552,6 +22482,11 @@
 </t>
         </is>
       </c>
+      <c r="G587" t="inlineStr">
+        <is>
+          <t>meeting schedule</t>
+        </is>
+      </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
@@ -19586,6 +22521,11 @@
 </t>
         </is>
       </c>
+      <c r="G588" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
@@ -19620,6 +22560,11 @@
 </t>
         </is>
       </c>
+      <c r="G589" t="inlineStr">
+        <is>
+          <t>update</t>
+        </is>
+      </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
@@ -19654,6 +22599,11 @@
 </t>
         </is>
       </c>
+      <c r="G590" t="inlineStr">
+        <is>
+          <t>sharing document</t>
+        </is>
+      </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
@@ -19688,6 +22638,11 @@
 </t>
         </is>
       </c>
+      <c r="G591" t="inlineStr">
+        <is>
+          <t>sharing document</t>
+        </is>
+      </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
@@ -19722,6 +22677,11 @@
 </t>
         </is>
       </c>
+      <c r="G592" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
@@ -19756,6 +22716,11 @@
 </t>
         </is>
       </c>
+      <c r="G593" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
@@ -19786,6 +22751,11 @@
 </t>
         </is>
       </c>
+      <c r="G594" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
@@ -19816,6 +22786,11 @@
 </t>
         </is>
       </c>
+      <c r="G595" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
@@ -19850,6 +22825,11 @@
 </t>
         </is>
       </c>
+      <c r="G596" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
@@ -19884,6 +22864,11 @@
 </t>
         </is>
       </c>
+      <c r="G597" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
@@ -19918,6 +22903,11 @@
 </t>
         </is>
       </c>
+      <c r="G598" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
@@ -19948,6 +22938,11 @@
 </t>
         </is>
       </c>
+      <c r="G599" t="inlineStr">
+        <is>
+          <t>following up</t>
+        </is>
+      </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
@@ -19982,6 +22977,11 @@
 </t>
         </is>
       </c>
+      <c r="G600" t="inlineStr">
+        <is>
+          <t>making introduction</t>
+        </is>
+      </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
@@ -20012,6 +23012,11 @@
 </t>
         </is>
       </c>
+      <c r="G601" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
@@ -20042,6 +23047,11 @@
 </t>
         </is>
       </c>
+      <c r="G602" t="inlineStr">
+        <is>
+          <t>requesting information</t>
+        </is>
+      </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
@@ -20074,6 +23084,11 @@
         <is>
           <t xml:space="preserve">Re: EOL Screens in new Body Shop
 </t>
+        </is>
+      </c>
+      <c r="G603" t="inlineStr">
+        <is>
+          <t>task scheduled</t>
         </is>
       </c>
     </row>
